--- a/server/data/SH.xlsx
+++ b/server/data/SH.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="222">
   <si>
     <t>座位</t>
   </si>
@@ -25,12 +25,18 @@
     <t>名号</t>
   </si>
   <si>
+    <t>级别</t>
+  </si>
+  <si>
     <t xml:space="preserve">宋江    </t>
   </si>
   <si>
     <t>及时雨</t>
   </si>
   <si>
+    <t>K</t>
+  </si>
+  <si>
     <t xml:space="preserve">卢俊义    </t>
   </si>
   <si>
@@ -137,6 +143,9 @@
   </si>
   <si>
     <t>急先锋</t>
+  </si>
+  <si>
+    <t>Q</t>
   </si>
   <si>
     <t xml:space="preserve">戴宗    </t>
@@ -1609,15 +1618,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1627,1193 +1636,1520 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>73</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>75</v>
+      </c>
+      <c r="D36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>83</v>
+      </c>
+      <c r="D40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>87</v>
+      </c>
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>89</v>
+      </c>
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>91</v>
+      </c>
+      <c r="D44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>95</v>
+      </c>
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>97</v>
+      </c>
+      <c r="D47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>99</v>
+      </c>
+      <c r="D48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>101</v>
+      </c>
+      <c r="D49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>103</v>
+      </c>
+      <c r="D50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>105</v>
+      </c>
+      <c r="D51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="D52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>109</v>
+      </c>
+      <c r="D53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>111</v>
+      </c>
+      <c r="D54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>113</v>
+      </c>
+      <c r="D55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>115</v>
+      </c>
+      <c r="D56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>117</v>
+      </c>
+      <c r="D57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>119</v>
+      </c>
+      <c r="D58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>121</v>
+      </c>
+      <c r="D59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>123</v>
+      </c>
+      <c r="D60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>125</v>
+      </c>
+      <c r="D61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>127</v>
+      </c>
+      <c r="D62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>129</v>
+      </c>
+      <c r="D63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>131</v>
+      </c>
+      <c r="D64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>133</v>
+      </c>
+      <c r="D65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>135</v>
+      </c>
+      <c r="D66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>137</v>
+      </c>
+      <c r="D67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>139</v>
+      </c>
+      <c r="D68" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>141</v>
+      </c>
+      <c r="D69" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C70" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>143</v>
+      </c>
+      <c r="D70" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>145</v>
+      </c>
+      <c r="D71" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>147</v>
+      </c>
+      <c r="D72" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>149</v>
+      </c>
+      <c r="D73" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>151</v>
+      </c>
+      <c r="D74" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>153</v>
+      </c>
+      <c r="D75" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C76" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>155</v>
+      </c>
+      <c r="D76" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C77" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>157</v>
+      </c>
+      <c r="D77" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>159</v>
+      </c>
+      <c r="D78" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>161</v>
+      </c>
+      <c r="D79" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C80" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>163</v>
+      </c>
+      <c r="D80" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C81" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>165</v>
+      </c>
+      <c r="D81" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C82" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>167</v>
+      </c>
+      <c r="D82" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C83" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>169</v>
+      </c>
+      <c r="D83" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C84" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>171</v>
+      </c>
+      <c r="D84" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>173</v>
+      </c>
+      <c r="D85" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C86" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>175</v>
+      </c>
+      <c r="D86" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>177</v>
+      </c>
+      <c r="D87" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C88" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>179</v>
+      </c>
+      <c r="D88" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C89" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>181</v>
+      </c>
+      <c r="D89" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C90" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>183</v>
+      </c>
+      <c r="D90" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>185</v>
+      </c>
+      <c r="D91" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C92" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>187</v>
+      </c>
+      <c r="D92" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C93" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>189</v>
+      </c>
+      <c r="D93" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C94" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>191</v>
+      </c>
+      <c r="D94" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C95" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>193</v>
+      </c>
+      <c r="D95" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C96" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>195</v>
+      </c>
+      <c r="D96" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C97" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>197</v>
+      </c>
+      <c r="D97" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C98" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>199</v>
+      </c>
+      <c r="D98" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C99" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>201</v>
+      </c>
+      <c r="D99" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C100" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>203</v>
+      </c>
+      <c r="D100" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C101" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>205</v>
+      </c>
+      <c r="D101" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C102" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>207</v>
+      </c>
+      <c r="D102" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C103" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>209</v>
+      </c>
+      <c r="D103" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C104" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>211</v>
+      </c>
+      <c r="D104" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C105" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>213</v>
+      </c>
+      <c r="D105" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C106" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>215</v>
+      </c>
+      <c r="D106" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C107" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>217</v>
+      </c>
+      <c r="D107" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C108" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>219</v>
+      </c>
+      <c r="D108" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C109" t="s">
-        <v>218</v>
+        <v>221</v>
+      </c>
+      <c r="D109" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/server/data/SH.xlsx
+++ b/server/data/SH.xlsx
@@ -649,13 +649,13 @@
     <t xml:space="preserve">孙二娘    </t>
   </si>
   <si>
-    <t>母夜叉/母药叉</t>
+    <t>母夜叉</t>
   </si>
   <si>
     <t xml:space="preserve">王定六    </t>
   </si>
   <si>
-    <t>活闪婆/霍闪婆</t>
+    <t>活闪婆</t>
   </si>
   <si>
     <t xml:space="preserve">郁保四    </t>
@@ -1620,8 +1620,8 @@
   <sheetPr/>
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/server/data/SH.xlsx
+++ b/server/data/SH.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="226">
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>名号</t>
+  </si>
+  <si>
+    <t>级别</t>
+  </si>
   <si>
     <t>座位</t>
   </si>
   <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>名号</t>
-  </si>
-  <si>
-    <t>级别</t>
+    <t>SSR</t>
   </si>
   <si>
     <t xml:space="preserve">宋江    </t>
@@ -34,7 +40,7 @@
     <t>及时雨</t>
   </si>
   <si>
-    <t>K</t>
+    <t>Y</t>
   </si>
   <si>
     <t xml:space="preserve">卢俊义    </t>
@@ -67,6 +73,9 @@
     <t>豹子头</t>
   </si>
   <si>
+    <t>SR</t>
+  </si>
+  <si>
     <t xml:space="preserve">秦明    </t>
   </si>
   <si>
@@ -121,6 +130,9 @@
     <t>双枪将</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
     <t xml:space="preserve">张清    </t>
   </si>
   <si>
@@ -145,9 +157,6 @@
     <t>急先锋</t>
   </si>
   <si>
-    <t>Q</t>
-  </si>
-  <si>
     <t xml:space="preserve">戴宗    </t>
   </si>
   <si>
@@ -248,6 +257,9 @@
   </si>
   <si>
     <t>浪子</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t xml:space="preserve">朱武    </t>
@@ -1618,15 +1630,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1639,1517 +1651,1844 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29">
         <v>28</v>
       </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33">
         <v>32</v>
       </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35">
         <v>34</v>
       </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36">
         <v>35</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37">
         <v>36</v>
       </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38">
         <v>37</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39">
         <v>38</v>
       </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40">
         <v>39</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41">
         <v>40</v>
       </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42">
         <v>41</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43">
         <v>42</v>
       </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45">
         <v>44</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46">
         <v>45</v>
       </c>
-      <c r="D21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47">
         <v>46</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48">
         <v>47</v>
       </c>
-      <c r="D22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49">
         <v>48</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50">
         <v>49</v>
       </c>
-      <c r="D23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51">
         <v>50</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52">
         <v>51</v>
       </c>
-      <c r="D24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53">
         <v>52</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54">
         <v>53</v>
       </c>
-      <c r="D25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55">
         <v>54</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56">
         <v>55</v>
       </c>
-      <c r="D26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57">
         <v>56</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58">
         <v>57</v>
       </c>
-      <c r="D27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59">
         <v>58</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60">
         <v>59</v>
       </c>
-      <c r="D28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61">
         <v>60</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62">
         <v>61</v>
       </c>
-      <c r="D29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63">
         <v>62</v>
       </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64">
         <v>63</v>
       </c>
-      <c r="D30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65">
         <v>64</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66">
         <v>65</v>
       </c>
-      <c r="D31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67">
         <v>66</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68">
         <v>67</v>
       </c>
-      <c r="D32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69">
         <v>68</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70">
         <v>69</v>
       </c>
-      <c r="D33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71">
         <v>70</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72">
         <v>71</v>
       </c>
-      <c r="D34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73">
         <v>72</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" t="s">
+        <v>155</v>
+      </c>
+      <c r="D74" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74">
         <v>73</v>
       </c>
-      <c r="D35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75">
         <v>74</v>
       </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" t="s">
+        <v>159</v>
+      </c>
+      <c r="D76" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76">
         <v>75</v>
       </c>
-      <c r="D36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77">
         <v>76</v>
       </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" t="s">
+        <v>81</v>
+      </c>
+      <c r="E78">
         <v>77</v>
       </c>
-      <c r="D37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" t="s">
+        <v>165</v>
+      </c>
+      <c r="D79" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79">
         <v>78</v>
       </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80">
         <v>79</v>
       </c>
-      <c r="D38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" t="s">
+        <v>81</v>
+      </c>
+      <c r="E81">
         <v>80</v>
       </c>
-      <c r="C39" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" t="s">
+        <v>81</v>
+      </c>
+      <c r="E82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83">
         <v>82</v>
       </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" t="s">
+        <v>175</v>
+      </c>
+      <c r="D84" t="s">
+        <v>81</v>
+      </c>
+      <c r="E84">
         <v>83</v>
       </c>
-      <c r="D40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" t="s">
+        <v>177</v>
+      </c>
+      <c r="D85" t="s">
+        <v>81</v>
+      </c>
+      <c r="E85">
         <v>84</v>
       </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" t="s">
+        <v>179</v>
+      </c>
+      <c r="D86" t="s">
+        <v>81</v>
+      </c>
+      <c r="E86">
         <v>85</v>
       </c>
-      <c r="D41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" t="s">
+        <v>181</v>
+      </c>
+      <c r="D87" t="s">
+        <v>81</v>
+      </c>
+      <c r="E87">
         <v>86</v>
       </c>
-      <c r="C42" t="s">
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" t="s">
+        <v>81</v>
+      </c>
+      <c r="E88">
         <v>87</v>
       </c>
-      <c r="D42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" t="s">
+        <v>184</v>
+      </c>
+      <c r="C89" t="s">
+        <v>185</v>
+      </c>
+      <c r="D89" t="s">
+        <v>81</v>
+      </c>
+      <c r="E89">
         <v>88</v>
       </c>
-      <c r="C43" t="s">
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" t="s">
+        <v>186</v>
+      </c>
+      <c r="C90" t="s">
+        <v>187</v>
+      </c>
+      <c r="D90" t="s">
+        <v>81</v>
+      </c>
+      <c r="E90">
         <v>89</v>
       </c>
-      <c r="D43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" t="s">
+        <v>189</v>
+      </c>
+      <c r="D91" t="s">
+        <v>81</v>
+      </c>
+      <c r="E91">
         <v>90</v>
       </c>
-      <c r="C44" t="s">
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" t="s">
+        <v>191</v>
+      </c>
+      <c r="D92" t="s">
+        <v>81</v>
+      </c>
+      <c r="E92">
         <v>91</v>
       </c>
-      <c r="D44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>81</v>
+      </c>
+      <c r="B93" t="s">
+        <v>192</v>
+      </c>
+      <c r="C93" t="s">
+        <v>193</v>
+      </c>
+      <c r="D93" t="s">
+        <v>81</v>
+      </c>
+      <c r="E93">
         <v>92</v>
       </c>
-      <c r="C45" t="s">
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" t="s">
+        <v>194</v>
+      </c>
+      <c r="C94" t="s">
+        <v>195</v>
+      </c>
+      <c r="D94" t="s">
+        <v>81</v>
+      </c>
+      <c r="E94">
         <v>93</v>
       </c>
-      <c r="D45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95" t="s">
+        <v>197</v>
+      </c>
+      <c r="D95" t="s">
+        <v>81</v>
+      </c>
+      <c r="E95">
         <v>94</v>
       </c>
-      <c r="C46" t="s">
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>81</v>
+      </c>
+      <c r="B96" t="s">
+        <v>198</v>
+      </c>
+      <c r="C96" t="s">
+        <v>199</v>
+      </c>
+      <c r="D96" t="s">
+        <v>81</v>
+      </c>
+      <c r="E96">
         <v>95</v>
       </c>
-      <c r="D46" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>81</v>
+      </c>
+      <c r="B97" t="s">
+        <v>200</v>
+      </c>
+      <c r="C97" t="s">
+        <v>201</v>
+      </c>
+      <c r="D97" t="s">
+        <v>81</v>
+      </c>
+      <c r="E97">
         <v>96</v>
       </c>
-      <c r="C47" t="s">
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>81</v>
+      </c>
+      <c r="B98" t="s">
+        <v>202</v>
+      </c>
+      <c r="C98" t="s">
+        <v>203</v>
+      </c>
+      <c r="D98" t="s">
+        <v>81</v>
+      </c>
+      <c r="E98">
         <v>97</v>
       </c>
-      <c r="D47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>81</v>
+      </c>
+      <c r="B99" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" t="s">
+        <v>205</v>
+      </c>
+      <c r="D99" t="s">
+        <v>81</v>
+      </c>
+      <c r="E99">
         <v>98</v>
       </c>
-      <c r="C48" t="s">
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>81</v>
+      </c>
+      <c r="B100" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" t="s">
+        <v>207</v>
+      </c>
+      <c r="D100" t="s">
+        <v>81</v>
+      </c>
+      <c r="E100">
         <v>99</v>
       </c>
-      <c r="D48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>81</v>
+      </c>
+      <c r="B101" t="s">
+        <v>208</v>
+      </c>
+      <c r="C101" t="s">
+        <v>209</v>
+      </c>
+      <c r="D101" t="s">
+        <v>81</v>
+      </c>
+      <c r="E101">
         <v>100</v>
       </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>81</v>
+      </c>
+      <c r="B102" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" t="s">
+        <v>211</v>
+      </c>
+      <c r="D102" t="s">
+        <v>81</v>
+      </c>
+      <c r="E102">
         <v>101</v>
       </c>
-      <c r="D49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>81</v>
+      </c>
+      <c r="B103" t="s">
+        <v>212</v>
+      </c>
+      <c r="C103" t="s">
+        <v>213</v>
+      </c>
+      <c r="D103" t="s">
+        <v>81</v>
+      </c>
+      <c r="E103">
         <v>102</v>
       </c>
-      <c r="C50" t="s">
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>81</v>
+      </c>
+      <c r="B104" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" t="s">
+        <v>215</v>
+      </c>
+      <c r="D104" t="s">
+        <v>81</v>
+      </c>
+      <c r="E104">
         <v>103</v>
       </c>
-      <c r="D50" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>81</v>
+      </c>
+      <c r="B105" t="s">
+        <v>216</v>
+      </c>
+      <c r="C105" t="s">
+        <v>217</v>
+      </c>
+      <c r="D105" t="s">
+        <v>81</v>
+      </c>
+      <c r="E105">
         <v>104</v>
       </c>
-      <c r="C51" t="s">
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>81</v>
+      </c>
+      <c r="B106" t="s">
+        <v>218</v>
+      </c>
+      <c r="C106" t="s">
+        <v>219</v>
+      </c>
+      <c r="D106" t="s">
+        <v>81</v>
+      </c>
+      <c r="E106">
         <v>105</v>
       </c>
-      <c r="D51" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>81</v>
+      </c>
+      <c r="B107" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107" t="s">
+        <v>221</v>
+      </c>
+      <c r="D107" t="s">
+        <v>81</v>
+      </c>
+      <c r="E107">
         <v>106</v>
       </c>
-      <c r="C52" t="s">
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>81</v>
+      </c>
+      <c r="B108" t="s">
+        <v>222</v>
+      </c>
+      <c r="C108" t="s">
+        <v>223</v>
+      </c>
+      <c r="D108" t="s">
+        <v>81</v>
+      </c>
+      <c r="E108">
         <v>107</v>
       </c>
-      <c r="D52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>81</v>
+      </c>
+      <c r="B109" t="s">
+        <v>224</v>
+      </c>
+      <c r="C109" t="s">
+        <v>225</v>
+      </c>
+      <c r="D109" t="s">
+        <v>81</v>
+      </c>
+      <c r="E109">
         <v>108</v>
-      </c>
-      <c r="C53" t="s">
-        <v>109</v>
-      </c>
-      <c r="D53" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" t="s">
-        <v>111</v>
-      </c>
-      <c r="D54" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" t="s">
-        <v>113</v>
-      </c>
-      <c r="D55" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" t="s">
-        <v>119</v>
-      </c>
-      <c r="D58" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" t="s">
-        <v>121</v>
-      </c>
-      <c r="D59" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" t="s">
-        <v>123</v>
-      </c>
-      <c r="D60" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" t="s">
-        <v>125</v>
-      </c>
-      <c r="D61" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" t="s">
-        <v>127</v>
-      </c>
-      <c r="D62" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" t="s">
-        <v>129</v>
-      </c>
-      <c r="D63" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" t="s">
-        <v>133</v>
-      </c>
-      <c r="D65" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" t="s">
-        <v>135</v>
-      </c>
-      <c r="D66" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" t="s">
-        <v>137</v>
-      </c>
-      <c r="D67" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" t="s">
-        <v>139</v>
-      </c>
-      <c r="D68" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" t="s">
-        <v>141</v>
-      </c>
-      <c r="D69" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D70" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>144</v>
-      </c>
-      <c r="C71" t="s">
-        <v>145</v>
-      </c>
-      <c r="D71" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" t="s">
-        <v>147</v>
-      </c>
-      <c r="D72" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" t="s">
-        <v>149</v>
-      </c>
-      <c r="D73" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" t="s">
-        <v>151</v>
-      </c>
-      <c r="D74" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" t="s">
-        <v>153</v>
-      </c>
-      <c r="D75" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>154</v>
-      </c>
-      <c r="C76" t="s">
-        <v>155</v>
-      </c>
-      <c r="D76" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" t="s">
-        <v>157</v>
-      </c>
-      <c r="D77" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>158</v>
-      </c>
-      <c r="C78" t="s">
-        <v>159</v>
-      </c>
-      <c r="D78" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" t="s">
-        <v>161</v>
-      </c>
-      <c r="D79" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" t="s">
-        <v>163</v>
-      </c>
-      <c r="D80" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" t="s">
-        <v>165</v>
-      </c>
-      <c r="D81" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
-      </c>
-      <c r="D82" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" t="s">
-        <v>169</v>
-      </c>
-      <c r="D83" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" t="s">
-        <v>171</v>
-      </c>
-      <c r="D84" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>172</v>
-      </c>
-      <c r="C85" t="s">
-        <v>173</v>
-      </c>
-      <c r="D85" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>174</v>
-      </c>
-      <c r="C86" t="s">
-        <v>175</v>
-      </c>
-      <c r="D86" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>176</v>
-      </c>
-      <c r="C87" t="s">
-        <v>177</v>
-      </c>
-      <c r="D87" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>178</v>
-      </c>
-      <c r="C88" t="s">
-        <v>179</v>
-      </c>
-      <c r="D88" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>180</v>
-      </c>
-      <c r="C89" t="s">
-        <v>181</v>
-      </c>
-      <c r="D89" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>182</v>
-      </c>
-      <c r="C90" t="s">
-        <v>183</v>
-      </c>
-      <c r="D90" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>184</v>
-      </c>
-      <c r="C91" t="s">
-        <v>185</v>
-      </c>
-      <c r="D91" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>186</v>
-      </c>
-      <c r="C92" t="s">
-        <v>187</v>
-      </c>
-      <c r="D92" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>188</v>
-      </c>
-      <c r="C93" t="s">
-        <v>189</v>
-      </c>
-      <c r="D93" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>190</v>
-      </c>
-      <c r="C94" t="s">
-        <v>191</v>
-      </c>
-      <c r="D94" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>192</v>
-      </c>
-      <c r="C95" t="s">
-        <v>193</v>
-      </c>
-      <c r="D95" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>194</v>
-      </c>
-      <c r="C96" t="s">
-        <v>195</v>
-      </c>
-      <c r="D96" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>196</v>
-      </c>
-      <c r="C97" t="s">
-        <v>197</v>
-      </c>
-      <c r="D97" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>198</v>
-      </c>
-      <c r="C98" t="s">
-        <v>199</v>
-      </c>
-      <c r="D98" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>200</v>
-      </c>
-      <c r="C99" t="s">
-        <v>201</v>
-      </c>
-      <c r="D99" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>202</v>
-      </c>
-      <c r="C100" t="s">
-        <v>203</v>
-      </c>
-      <c r="D100" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>204</v>
-      </c>
-      <c r="C101" t="s">
-        <v>205</v>
-      </c>
-      <c r="D101" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>206</v>
-      </c>
-      <c r="C102" t="s">
-        <v>207</v>
-      </c>
-      <c r="D102" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>208</v>
-      </c>
-      <c r="C103" t="s">
-        <v>209</v>
-      </c>
-      <c r="D103" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>210</v>
-      </c>
-      <c r="C104" t="s">
-        <v>211</v>
-      </c>
-      <c r="D104" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>212</v>
-      </c>
-      <c r="C105" t="s">
-        <v>213</v>
-      </c>
-      <c r="D105" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>214</v>
-      </c>
-      <c r="C106" t="s">
-        <v>215</v>
-      </c>
-      <c r="D106" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>216</v>
-      </c>
-      <c r="C107" t="s">
-        <v>217</v>
-      </c>
-      <c r="D107" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>218</v>
-      </c>
-      <c r="C108" t="s">
-        <v>219</v>
-      </c>
-      <c r="D108" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>220</v>
-      </c>
-      <c r="C109" t="s">
-        <v>221</v>
-      </c>
-      <c r="D109" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
